--- a/hardware/ACme++/rev_a/ACme++_bom.xlsx
+++ b/hardware/ACme++/rev_a/ACme++_bom.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="240">
   <si>
     <t>Qty</t>
   </si>
@@ -148,9 +148,6 @@
     <t>CAPACITOR</t>
   </si>
   <si>
-    <t>0402_CAP</t>
-  </si>
-  <si>
     <t>0402 Capacitor</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>RESISTOR</t>
   </si>
   <si>
-    <t>0402_RES</t>
-  </si>
-  <si>
     <t>RHM2.2KCECT-ND</t>
   </si>
   <si>
@@ -800,6 +794,12 @@
   </si>
   <si>
     <t>0805</t>
+  </si>
+  <si>
+    <t>0402-RES</t>
+  </si>
+  <si>
+    <t>0402-CAP</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1283,22 +1283,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>165</v>
-      </c>
-      <c r="F2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1306,22 +1306,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1329,22 +1329,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1352,22 +1352,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1384,13 +1384,13 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1398,22 +1398,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1421,22 +1421,22 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1450,16 +1450,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1476,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1490,22 +1490,22 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1522,13 +1522,13 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1536,22 +1536,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4">
         <v>1206</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1568,13 +1568,13 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1582,22 +1582,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4">
         <v>1206</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1605,22 +1605,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1642,19 +1642,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s">
         <v>181</v>
-      </c>
-      <c r="E18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1662,22 +1662,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" t="s">
-        <v>119</v>
-      </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1685,22 +1685,22 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
         <v>122</v>
       </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>124</v>
-      </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1708,22 +1708,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
         <v>170</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1731,22 +1731,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" t="s">
         <v>105</v>
       </c>
-      <c r="E22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
-      </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1754,22 +1754,22 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" t="s">
-        <v>107</v>
-      </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1777,19 +1777,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" t="s">
         <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1797,19 +1797,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" t="s">
         <v>194</v>
-      </c>
-      <c r="C25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1817,19 +1817,19 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1837,28 +1837,28 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
         <v>173</v>
       </c>
-      <c r="C27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" t="s">
         <v>174</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>175</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>176</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>177</v>
-      </c>
-      <c r="H27" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1866,22 +1866,22 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="G28" t="s">
         <v>72</v>
-      </c>
-      <c r="E28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1889,22 +1889,22 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" t="s">
         <v>136</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>137</v>
-      </c>
-      <c r="F29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1912,22 +1912,22 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
         <v>189</v>
       </c>
-      <c r="C30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="F30" t="s">
         <v>190</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>191</v>
-      </c>
-      <c r="F30" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1935,19 +1935,19 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="s">
         <v>154</v>
-      </c>
-      <c r="C31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1964,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1981,19 +1981,19 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2004,19 +2004,19 @@
         <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2027,19 +2027,19 @@
         <v>470</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2047,22 +2047,22 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="4">
-        <v>805</v>
+      <c r="D36" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2070,22 +2070,22 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2093,22 +2093,22 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2116,22 +2116,22 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2139,22 +2139,22 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2162,22 +2162,22 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2185,22 +2185,22 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2208,22 +2208,22 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2231,22 +2231,22 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4">
         <v>1206</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2254,22 +2254,22 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2277,22 +2277,22 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="4">
         <v>1206</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2300,19 +2300,19 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2320,28 +2320,28 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
         <v>110</v>
       </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
         <v>112</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>113</v>
-      </c>
-      <c r="H48" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2349,22 +2349,22 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" t="s">
         <v>126</v>
       </c>
-      <c r="C49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" t="s">
-        <v>128</v>
-      </c>
       <c r="G49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2372,25 +2372,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" t="s">
         <v>158</v>
       </c>
-      <c r="E50" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" t="s">
         <v>160</v>
-      </c>
-      <c r="G50" t="s">
-        <v>161</v>
-      </c>
-      <c r="H50" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2398,28 +2398,28 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
       </c>
-      <c r="E51" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" t="s">
         <v>99</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>100</v>
-      </c>
-      <c r="H51" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2427,22 +2427,22 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
         <v>204</v>
       </c>
-      <c r="E52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" t="s">
-        <v>206</v>
-      </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2450,22 +2450,22 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" t="s">
         <v>185</v>
       </c>
-      <c r="E53" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" t="s">
-        <v>187</v>
-      </c>
       <c r="H53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2473,25 +2473,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" t="s">
         <v>198</v>
       </c>
-      <c r="E54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" t="s">
         <v>200</v>
-      </c>
-      <c r="G54" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2499,25 +2499,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s">
         <v>141</v>
       </c>
-      <c r="E55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" t="s">
         <v>143</v>
-      </c>
-      <c r="G55" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2525,22 +2525,22 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" t="s">
         <v>150</v>
       </c>
-      <c r="E56" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" t="s">
-        <v>152</v>
-      </c>
       <c r="G56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2548,22 +2548,22 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="s">
         <v>131</v>
       </c>
-      <c r="E57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" t="s">
-        <v>133</v>
-      </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/ACme++/rev_a/ACme++_bom.xlsx
+++ b/hardware/ACme++/rev_a/ACme++_bom.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="239">
   <si>
     <t>Qty</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>CAPACITOR</t>
-  </si>
-  <si>
-    <t>0402 Capacitor</t>
   </si>
   <si>
     <t>445-1265-1-ND</t>
@@ -865,8 +862,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -885,15 +892,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1229,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1283,22 +1300,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" t="s">
         <v>162</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>163</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>164</v>
-      </c>
-      <c r="J2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1306,22 +1323,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1329,22 +1346,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1352,22 +1369,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1375,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1384,13 +1401,13 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1398,22 +1415,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1421,22 +1438,22 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1450,16 +1467,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1476,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1490,22 +1507,22 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1513,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1522,13 +1539,13 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1536,22 +1553,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4">
         <v>1206</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1559,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1568,13 +1585,13 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1582,22 +1599,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4">
         <v>1206</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1605,22 +1622,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1642,19 +1659,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1662,22 +1679,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1685,22 +1702,22 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1708,22 +1725,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" t="s">
         <v>103</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>104</v>
       </c>
-      <c r="F21" t="s">
-        <v>105</v>
-      </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1731,22 +1748,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
         <v>166</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1754,22 +1771,22 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
         <v>105</v>
-      </c>
-      <c r="G23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1777,19 +1794,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>92</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1797,19 +1814,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" t="s">
         <v>193</v>
-      </c>
-      <c r="E25" t="s">
-        <v>236</v>
-      </c>
-      <c r="F25" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1817,19 +1834,19 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" t="s">
         <v>206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1837,28 +1854,28 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" t="s">
         <v>172</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>173</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>174</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>175</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>176</v>
-      </c>
-      <c r="I27" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1866,22 +1883,22 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" t="s">
         <v>70</v>
       </c>
-      <c r="E28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>71</v>
-      </c>
-      <c r="G28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1889,22 +1906,22 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" t="s">
         <v>134</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>135</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>136</v>
-      </c>
-      <c r="G29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1912,22 +1929,22 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" t="s">
         <v>188</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>189</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>190</v>
-      </c>
-      <c r="G30" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1935,19 +1952,19 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s">
         <v>152</v>
       </c>
-      <c r="C31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>153</v>
-      </c>
-      <c r="G31" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1964,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1981,19 +1998,19 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2004,19 +2021,19 @@
         <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2027,19 +2044,19 @@
         <v>470</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2047,22 +2064,22 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2070,22 +2087,22 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2093,22 +2110,22 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2116,22 +2133,22 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2139,22 +2156,22 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2162,22 +2179,22 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2185,22 +2202,22 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2208,22 +2225,22 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2231,22 +2248,22 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
         <v>52</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
       </c>
       <c r="D44" s="4">
         <v>1206</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2254,22 +2271,22 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2277,22 +2294,22 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>1206</v>
       </c>
       <c r="E46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2300,19 +2317,19 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
         <v>144</v>
       </c>
-      <c r="C47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>145</v>
-      </c>
-      <c r="G47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2320,28 +2337,28 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
         <v>110</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>111</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>112</v>
-      </c>
-      <c r="I48" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2349,22 +2366,22 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F49" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" t="s">
         <v>126</v>
-      </c>
-      <c r="G49" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2372,25 +2389,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" t="s">
         <v>158</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>159</v>
-      </c>
-      <c r="H50" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2398,28 +2415,28 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
         <v>97</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>98</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>99</v>
-      </c>
-      <c r="I51" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2427,22 +2444,22 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C52" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
+        <v>203</v>
+      </c>
+      <c r="G52" t="s">
         <v>204</v>
-      </c>
-      <c r="G52" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2450,22 +2467,22 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53" t="s">
         <v>185</v>
-      </c>
-      <c r="H53" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2473,25 +2490,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" t="s">
         <v>198</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>199</v>
-      </c>
-      <c r="H54" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2499,25 +2516,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" t="s">
         <v>141</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>142</v>
-      </c>
-      <c r="H55" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2525,22 +2542,22 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" t="s">
         <v>150</v>
-      </c>
-      <c r="G56" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2548,22 +2565,22 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" t="s">
         <v>131</v>
-      </c>
-      <c r="G57" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/ACme++/rev_a/ACme++_bom.xlsx
+++ b/hardware/ACme++/rev_a/ACme++_bom.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="digikey_order.txt" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ACme" localSheetId="0">Sheet1!#REF!</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="266">
   <si>
     <t>Qty</t>
   </si>
@@ -797,6 +798,87 @@
   </si>
   <si>
     <t>0402-CAP</t>
+  </si>
+  <si>
+    <t>377-1709-ND</t>
+  </si>
+  <si>
+    <t>PPB-11860-BK</t>
+  </si>
+  <si>
+    <t>BOX ABS 3.09X2.09X1.65" BLK</t>
+  </si>
+  <si>
+    <t>377-1710-ND</t>
+  </si>
+  <si>
+    <t>PPB-11860-WT</t>
+  </si>
+  <si>
+    <t>BOX ABS 3.09X2.09X1.65" WHT</t>
+  </si>
+  <si>
+    <t>Q228-ND</t>
+  </si>
+  <si>
+    <t>739W-X2/03</t>
+  </si>
+  <si>
+    <t>OUTLET PWR NEMA 5-15R SNAPIN/IDC</t>
+  </si>
+  <si>
+    <t>6717 BK005-ND</t>
+  </si>
+  <si>
+    <t>6717 BK005</t>
+  </si>
+  <si>
+    <t>HOOK-UP STRND 14AWG BLACK 100'</t>
+  </si>
+  <si>
+    <t>6717 GR005-ND</t>
+  </si>
+  <si>
+    <t>6717 GR005</t>
+  </si>
+  <si>
+    <t>HOOK-UP STRND 14AWG GREEN 100'</t>
+  </si>
+  <si>
+    <t>6717 WH005-ND</t>
+  </si>
+  <si>
+    <t>6717 WH005</t>
+  </si>
+  <si>
+    <t>HOOK-UP STRND 14AWG WHITE 100'</t>
+  </si>
+  <si>
+    <t>#4 3/16" Panhead Self-Tapping Screws</t>
+  </si>
+  <si>
+    <t>92470a106</t>
+  </si>
+  <si>
+    <t>McMASTER-CARR</t>
+  </si>
+  <si>
+    <t>14AWG Black</t>
+  </si>
+  <si>
+    <t>14AWG Green</t>
+  </si>
+  <si>
+    <t>14AWG White</t>
+  </si>
+  <si>
+    <t>#4 Screw</t>
+  </si>
+  <si>
+    <t>ENCLOSURE</t>
+  </si>
+  <si>
+    <t>SOCKET</t>
   </si>
 </sst>
 </file>
@@ -862,7 +944,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -882,8 +964,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -891,8 +1009,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -902,6 +1025,24 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -911,6 +1052,24 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1244,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1261,9 +1420,10 @@
     <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1294,8 +1454,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1318,7 +1481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1341,7 +1504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1364,7 +1527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1387,7 +1550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1410,7 +1573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1433,7 +1596,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1456,7 +1619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1479,7 +1642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1502,7 +1665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1525,7 +1688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1548,7 +1711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1571,7 +1734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1594,7 +1757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1617,7 +1780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2361,7 +2524,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2384,7 +2547,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2410,7 +2573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2439,7 +2602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2462,7 +2625,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2485,7 +2648,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2511,7 +2674,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2537,7 +2700,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2560,7 +2723,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2581,6 +2744,130 @@
       </c>
       <c r="G57" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" t="s">
+        <v>256</v>
+      </c>
+      <c r="G63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="F64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K64" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2595,4 +2882,579 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/hardware/ACme++/rev_a/ACme++_bom.xlsx
+++ b/hardware/ACme++/rev_a/ACme++_bom.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30860" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="digikey_order.txt" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="digikey_order.txt" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="ACme" vbProcedure="false">sheet1!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="ACme___1" vbProcedure="false">sheet1!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="ACme___2" vbProcedure="false">Sheet1!$A$1:$K$57</definedName>
+    <definedName name="ACme" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="ACme___1" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="ACme___2" localSheetId="0">Sheet1!$A$1:$K$57</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="272">
   <si>
     <t>Qty</t>
   </si>
@@ -140,9 +144,6 @@
     <t>CAP0805</t>
   </si>
   <si>
-    <t>0805</t>
-  </si>
-  <si>
     <t>C8, C9, C10</t>
   </si>
   <si>
@@ -224,12 +225,6 @@
     <t>PCE4440CT-ND</t>
   </si>
   <si>
-    <t>CAP_POL</t>
-  </si>
-  <si>
-    <t>C36, C37</t>
-  </si>
-  <si>
     <t>SMAJ_TVS</t>
   </si>
   <si>
@@ -590,7 +585,7 @@
     <t>296-35797-1-ND</t>
   </si>
   <si>
-    <t> 595-CC2538SF53RTQT </t>
+    <t>595-CC2538SF53RTQT</t>
   </si>
   <si>
     <t>87W7713</t>
@@ -623,7 +618,7 @@
     <t>FM25L04B-DGRA-ND</t>
   </si>
   <si>
-    <t> 877-FM25L04B-DG </t>
+    <t>877-FM25L04B-DG</t>
   </si>
   <si>
     <t>ADE7753</t>
@@ -641,7 +636,7 @@
     <t>ADE7753ARSZRLCT-ND</t>
   </si>
   <si>
-    <t> 584-ADE7753ARSZR </t>
+    <t>584-ADE7753ARSZR</t>
   </si>
   <si>
     <t>59K0984</t>
@@ -692,7 +687,7 @@
     <t>568-3310-1-ND</t>
   </si>
   <si>
-    <t> 771-TDA3664ATN1118 </t>
+    <t>771-TDA3664ATN1118</t>
   </si>
   <si>
     <t>EPSON-FA-128</t>
@@ -819,53 +814,67 @@
   </si>
   <si>
     <t>92470a106</t>
+  </si>
+  <si>
+    <t>0805-CAP</t>
+  </si>
+  <si>
+    <t>1206-CAP</t>
+  </si>
+  <si>
+    <t>0805-RES</t>
+  </si>
+  <si>
+    <t>1206-RES</t>
+  </si>
+  <si>
+    <t>TEST_POINT_0.040IN</t>
+  </si>
+  <si>
+    <t>TESTPOINT_0.040IN</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7</t>
+  </si>
+  <si>
+    <t>0.040in Test Point</t>
+  </si>
+  <si>
+    <t>5001K-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -877,158 +886,431 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="pageBreakPreview" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G1" activeCellId="0" pane="topLeft" sqref="G:G"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.16296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="29.6666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="25.8888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.6333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.3"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3518518518519"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.1740740740741"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.47407407407407"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.5555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.5296296296296"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1050,8 +1332,8 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1073,8 +1355,8 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1096,8 +1378,8 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1119,8 +1401,8 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1142,8 +1424,8 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1165,8 +1447,8 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1176,24 +1458,24 @@
         <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1202,21 +1484,21 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -1225,21 +1507,21 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1248,21 +1530,21 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1271,44 +1553,44 @@
         <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1206</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1317,239 +1599,245 @@
         <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1206</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>2917</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="n">
+      <c r="G17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="n">
-        <v>1</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>100</v>
@@ -1561,9 +1849,9 @@
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="n">
-        <v>3</v>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>103</v>
@@ -1572,228 +1860,231 @@
         <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="n">
-        <v>1</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="n">
-        <v>2</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>128</v>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1E-3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>0.001</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="A33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>10</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>330</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="A34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>330</v>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>470</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="n">
-        <v>470</v>
+      <c r="B35" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="A36" s="1" t="n">
-        <v>3</v>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>147</v>
@@ -1802,1233 +2093,1225 @@
         <v>140</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="A37" s="1" t="n">
-        <v>2</v>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="1" t="n">
-        <v>3</v>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="1" t="n">
-        <v>2</v>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="A43" s="1" t="n">
-        <v>1</v>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>1206</v>
+      <c r="D44" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="1" t="n">
-        <v>1</v>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="1" t="n">
-        <v>2</v>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>1206</v>
+        <v>178</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G46" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="1" t="n">
-        <v>1</v>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="A49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="A50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="G50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="A51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="A52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="G52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="53">
-      <c r="A53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="H53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="G54" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
-      <c r="A55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
-      <c r="A56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="G56" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="A57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="58">
-      <c r="A58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="G58" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="7" t="s">
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G59" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="59">
-      <c r="A59" s="1" t="n">
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
         <v>0</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="60">
-      <c r="A60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="61">
-      <c r="A61" s="1" t="n">
+      <c r="G61" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B62" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="62">
-      <c r="A62" s="1" t="n">
+      <c r="G62" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="B63" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="63">
-      <c r="A63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="7" t="s">
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="1" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="F64" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="64">
-      <c r="A64" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="F64" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="73" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
+  <pageSetup scale="48" firstPageNumber="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="4" man="true" max="65535" min="0"/>
+    <brk id="4" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="pageBreakPreview" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E11" activeCellId="1" pane="topLeft" sqref="G:G E11"/>
+    <sheetView view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="E11" activeCellId="1" sqref="G1:G1048576 E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="0" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="n">
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>2</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="B33" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>2</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="n">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>2</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="B40" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C40" t="s">
         <v>176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" s="0" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C41" t="s">
         <v>179</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="0" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="0" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" s="0" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>237</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>